--- a/Documents/Пояснительная записка/Сравнительная таблица.xlsx
+++ b/Documents/Пояснительная записка/Сравнительная таблица.xlsx
@@ -19,9 +19,6 @@
     <t>АПКШ “Континент”</t>
   </si>
   <si>
-    <t>ПК “СОЮЗ СпецСвязь”</t>
-  </si>
-  <si>
     <t>Сеть ТЕЛЕДИСКОНТ</t>
   </si>
   <si>
@@ -74,6 +71,9 @@
   </si>
   <si>
     <t>Используется контроллируемое предприятием шифрование</t>
+  </si>
+  <si>
+    <t>ПК “Signatura. СпецСвязь”</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,188 +508,188 @@
     <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Пояснительная записка/Сравнительная таблица.xlsx
+++ b/Documents/Пояснительная записка/Сравнительная таблица.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Аналоги" sheetId="4" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="19">
   <si>
     <t>АПКШ “Континент”</t>
   </si>
@@ -34,9 +35,6 @@
     <t>Название аналога</t>
   </si>
   <si>
-    <t>Сравнительная стоимость</t>
-  </si>
-  <si>
     <t>Высокая</t>
   </si>
   <si>
@@ -46,9 +44,6 @@
     <t>Низкая</t>
   </si>
   <si>
-    <t>Популярность</t>
-  </si>
-  <si>
     <t>Требует размещать оборудование</t>
   </si>
   <si>
@@ -74,6 +69,9 @@
   </si>
   <si>
     <t>ПК “Signatura. СпецСвязь”</t>
+  </si>
+  <si>
+    <t>Стоимость внедрения</t>
   </si>
 </sst>
 </file>
@@ -104,7 +102,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +139,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -169,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -187,6 +191,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -490,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -533,163 +543,325 @@
     </row>
     <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="B5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="G7" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
